--- a/shared/ojb-resources-common/src/main/resources/service-specifications/Identification_Recording_Service/artifacts/service_model/information_model/Identification_IEPD/documentation/identification_request_mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/service-specifications/Identification_Recording_Service/artifacts/service_model/information_model/Identification_IEPD/documentation/identification_request_mapping.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Business</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Document</t>
   </si>
   <si>
-    <t>Person</t>
-  </si>
-  <si>
     <t>NEIM 3.0 Mapping</t>
   </si>
   <si>
@@ -149,6 +146,21 @@
   </si>
   <si>
     <t>/pidrequest:PersonIdentificationRequest/ext:IdentificationRequestDocument/@structures:id</t>
+  </si>
+  <si>
+    <t>/pidrequest:PersonIdentificationRequest/ext:IdentificationRequestDocument/ext:DocumentBinary/@xmime:contentType</t>
+  </si>
+  <si>
+    <t>/pidrequest:PersonIdentificationRequest/ext:IdentificationRequestDocument/xop:Include/@href</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Document Reference</t>
+  </si>
+  <si>
+    <t>Person Reference</t>
   </si>
 </sst>
 </file>
@@ -1153,13 +1165,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,16 +1204,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1212,10 +1224,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="24"/>
     </row>
@@ -1224,10 +1236,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="10"/>
     </row>
@@ -1236,10 +1248,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="19"/>
     </row>
@@ -1248,10 +1260,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="19"/>
     </row>
@@ -1260,10 +1272,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="19"/>
     </row>
@@ -1275,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="19"/>
     </row>
@@ -1284,10 +1296,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="19"/>
     </row>
@@ -1296,10 +1308,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="19"/>
     </row>
@@ -1316,10 +1328,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="25"/>
     </row>
@@ -1331,7 +1343,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="25"/>
     </row>
@@ -1343,7 +1355,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="25"/>
     </row>
@@ -1353,7 +1365,7 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="10"/>
     </row>
@@ -1365,51 +1377,61 @@
         <v>17</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="25"/>
     </row>
-    <row r="19" spans="1:4" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>22</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B20" s="19"/>
       <c r="C20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="4"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -1605,6 +1627,16 @@
       <c r="A62" s="3"/>
       <c r="B62" s="14"/>
       <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
